--- a/2021年7月面试记录/2021年07月面试记录.xlsx
+++ b/2021年7月面试记录/2021年07月面试记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>公司名称</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>2021年7月7</t>
+  </si>
+  <si>
+    <t>盈富斯</t>
+  </si>
+  <si>
+    <t>D伦</t>
+  </si>
+  <si>
+    <t>大小周</t>
+  </si>
+  <si>
+    <t>2021年7月8</t>
   </si>
 </sst>
 </file>
@@ -83,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,12 +125,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -128,43 +169,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,29 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -225,6 +230,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -243,7 +255,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +467,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,17 +490,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,15 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,6 +556,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -563,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,31 +587,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,100 +626,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1078,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1158,19 +1170,33 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>

--- a/2021年7月面试记录/2021年07月面试记录.xlsx
+++ b/2021年7月面试记录/2021年07月面试记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>公司名称</t>
   </si>
@@ -81,13 +81,103 @@
     <t>盈富斯</t>
   </si>
   <si>
-    <t>D伦</t>
+    <t>D</t>
   </si>
   <si>
     <t>大小周</t>
   </si>
   <si>
     <t>2021年7月8</t>
+  </si>
+  <si>
+    <t>知学云</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2021年7月9</t>
+  </si>
+  <si>
+    <t>爱问医联</t>
+  </si>
+  <si>
+    <t>十方教育</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>鲁班到家</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>2021年7月10</t>
+  </si>
+  <si>
+    <t>万筑物联</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>2021年7月12</t>
+  </si>
+  <si>
+    <t>超级互娱</t>
+  </si>
+  <si>
+    <t>小公司</t>
+  </si>
+  <si>
+    <t>19*13，试用八折 三个月</t>
+  </si>
+  <si>
+    <t>2021年7月13</t>
+  </si>
+  <si>
+    <t>小鹅通</t>
+  </si>
+  <si>
+    <t>18k*15 + 1.1餐补</t>
+  </si>
+  <si>
+    <t>2021年7月14</t>
+  </si>
+  <si>
+    <t>天地合集团</t>
+  </si>
+  <si>
+    <t>实体转互联网</t>
+  </si>
+  <si>
+    <t>线上面</t>
+  </si>
+  <si>
+    <t>19*13，试用16K 三个月</t>
+  </si>
+  <si>
+    <t>先单休后双休</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>金蝶金融</t>
+  </si>
+  <si>
+    <t>2021年7月15</t>
+  </si>
+  <si>
+    <t>北京尔湾科技</t>
+  </si>
+  <si>
+    <t>北京</t>
   </si>
 </sst>
 </file>
@@ -95,8 +185,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -118,14 +208,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,21 +237,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,20 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -199,6 +275,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -230,13 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -245,9 +336,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,19 +366,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,163 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,15 +557,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,11 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +614,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,17 +638,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,20 +1168,20 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="23.875" customWidth="1"/>
     <col min="11" max="11" width="12.125" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="16.625" customWidth="1"/>
@@ -1193,136 +1283,286 @@
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
       <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1331,13 +1571,23 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1346,7 +1596,9 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2"/>
@@ -1604,6 +1856,9 @@
       <c r="M30" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E11:H11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
